--- a/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2\Sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="5850" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
     <sheet name="Tabelle6" sheetId="6" r:id="rId6"/>
     <sheet name="Tabelle7" sheetId="7" r:id="rId7"/>
+    <sheet name="Tabelle8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Sechskantschraube</t>
   </si>
@@ -90,6 +91,12 @@
   </si>
   <si>
     <t>Stückzahl</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Dichte</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1420,4 +1427,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Dokumente\GitHub\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B2D677-534D-49ED-A587-1F7BBCECDEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Sechskantschraube</t>
   </si>
@@ -97,12 +98,18 @@
   </si>
   <si>
     <t>Dichte</t>
+  </si>
+  <si>
+    <t>Stahl unlegiert</t>
+  </si>
+  <si>
+    <t>Stahl nichtrostend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,19 +555,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -568,7 +575,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -596,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -610,7 +617,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -624,7 +631,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -638,7 +645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -652,7 +659,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -666,7 +673,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -680,7 +687,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -694,7 +701,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -708,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -722,7 +729,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -736,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>30</v>
       </c>
@@ -750,7 +757,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>36</v>
       </c>
@@ -770,19 +777,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -790,7 +797,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -804,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -818,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -832,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -846,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -860,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -874,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -888,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -902,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>16</v>
       </c>
@@ -916,7 +923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>20</v>
       </c>
@@ -930,7 +937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>24</v>
       </c>
@@ -944,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>30</v>
       </c>
@@ -958,7 +965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>36</v>
       </c>
@@ -978,16 +985,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1002,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1009,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -1023,7 +1030,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -1037,7 +1044,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -1065,7 +1072,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>8</v>
       </c>
@@ -1079,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>10</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>12</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>20</v>
       </c>
@@ -1141,16 +1148,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1165,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1200,7 +1207,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -1228,7 +1235,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>8</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>10</v>
       </c>
@@ -1262,46 +1269,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1312,26 +1319,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1368,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1379,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
@@ -1390,36 +1397,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1430,23 +1437,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>7.87</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Dokumente\GitHub\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B2D677-534D-49ED-A587-1F7BBCECDEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,19 +554,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -575,7 +574,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -603,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -617,7 +616,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -631,7 +630,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -645,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -659,7 +658,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -673,7 +672,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -687,7 +686,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -701,7 +700,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -715,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -729,7 +728,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -743,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>30</v>
       </c>
@@ -757,7 +756,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>36</v>
       </c>
@@ -777,19 +776,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -797,7 +796,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -811,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -825,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -839,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -853,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -867,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -881,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -895,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -909,7 +908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>16</v>
       </c>
@@ -923,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>20</v>
       </c>
@@ -937,7 +936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>24</v>
       </c>
@@ -951,7 +950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>30</v>
       </c>
@@ -965,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>36</v>
       </c>
@@ -985,16 +984,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1001,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>8</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>10</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>12</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>20</v>
       </c>
@@ -1148,16 +1147,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1164,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>8</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>10</v>
       </c>
@@ -1269,46 +1268,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1319,75 +1318,75 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>800</v>
+      </c>
+      <c r="B4">
+        <v>640</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>800</v>
-      </c>
-      <c r="C4">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>900</v>
+      </c>
+      <c r="B5">
+        <v>720</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
         <v>900</v>
       </c>
-      <c r="C5">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -1397,36 +1396,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1437,40 +1436,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.85</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7.87</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
-      </c>
-      <c r="B3">
-        <v>7.87</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
@@ -1183,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="12">
         <v>0.8</v>
-      </c>
-      <c r="C3" s="12">
-        <v>5.5</v>
       </c>
       <c r="D3" s="12">
         <v>2</v>
@@ -1197,10 +1197,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="13">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13">
         <v>1.2</v>
-      </c>
-      <c r="C4" s="13">
-        <v>7</v>
       </c>
       <c r="D4" s="13">
         <v>2.6</v>
@@ -1211,10 +1211,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="C5" s="12">
         <v>1.2</v>
-      </c>
-      <c r="C5" s="12">
-        <v>8.5</v>
       </c>
       <c r="D5" s="12">
         <v>3.3</v>
@@ -1225,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="13">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13">
         <v>1.6</v>
-      </c>
-      <c r="C6" s="13">
-        <v>10</v>
       </c>
       <c r="D6" s="13">
         <v>3.9</v>
@@ -1239,10 +1239,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="12">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12">
         <v>2</v>
-      </c>
-      <c r="C7" s="12">
-        <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>5</v>
@@ -1253,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="13">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13">
         <v>2.5</v>
-      </c>
-      <c r="C8" s="13">
-        <v>16</v>
       </c>
       <c r="D8" s="13">
         <v>6</v>
@@ -1321,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Dokumente\GitHub\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D86E2-C16B-4695-8FAC-4608D005FB79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-20610" yWindow="1830" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,6 +21,7 @@
     <sheet name="Tabelle6" sheetId="6" r:id="rId6"/>
     <sheet name="Tabelle7" sheetId="7" r:id="rId7"/>
     <sheet name="Tabelle8" sheetId="8" r:id="rId8"/>
+    <sheet name="Tabelle9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sechskantschraube</t>
   </si>
@@ -103,12 +105,15 @@
   </si>
   <si>
     <t>Stahl nichtrostend</t>
+  </si>
+  <si>
+    <t>Gewindelänge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,19 +559,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -574,7 +579,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -602,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -616,7 +621,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -630,7 +635,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -644,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -658,7 +663,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -672,7 +677,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -686,7 +691,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -700,7 +705,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -714,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -728,7 +733,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -742,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>30</v>
       </c>
@@ -756,7 +761,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>36</v>
       </c>
@@ -776,19 +781,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -796,7 +801,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -824,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -838,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -852,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -866,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -880,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -894,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -908,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>16</v>
       </c>
@@ -922,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>20</v>
       </c>
@@ -936,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>24</v>
       </c>
@@ -950,7 +955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>30</v>
       </c>
@@ -964,7 +969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>36</v>
       </c>
@@ -984,16 +989,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1001,7 +1006,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -1043,7 +1048,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>8</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>10</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>12</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>20</v>
       </c>
@@ -1147,16 +1152,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1169,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>8</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>10</v>
       </c>
@@ -1268,46 +1273,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1318,26 +1323,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1356,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>800</v>
       </c>
@@ -1367,7 +1372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>900</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1396,36 +1401,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1436,19 +1441,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7.85</v>
       </c>
@@ -1464,12 +1469,95 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.87</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2BB505-3A02-420D-80F8-4EE3C0CC4249}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Dokumente\GitHub\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1D86E2-C16B-4695-8FAC-4608D005FB79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9EFEEF-CE38-4599-B297-36F5C18B20D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1830" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19230" yWindow="3420" windowWidth="17280" windowHeight="8970" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1484,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2BB505-3A02-420D-80F8-4EE3C0CC4249}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,37 +1527,92 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Dokumente\GitHub\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9EFEEF-CE38-4599-B297-36F5C18B20D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0DCCA-8045-4F58-92D3-D5340A3C292B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19230" yWindow="3420" windowWidth="17280" windowHeight="8970" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19905" yWindow="2730" windowWidth="17280" windowHeight="8970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,6 +1315,26 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2BB505-3A02-420D-80F8-4EE3C0CC4249}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2WPF/Sprint2WPF/DatenbankSchraube.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Dokumente\GitHub\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0DCCA-8045-4F58-92D3-D5340A3C292B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19905" yWindow="2730" windowWidth="17280" windowHeight="8970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18975" yWindow="2730" windowWidth="17280" windowHeight="8970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -113,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,19 +558,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -579,7 +578,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -607,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -621,7 +620,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -635,7 +634,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -649,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -663,7 +662,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -677,7 +676,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -691,7 +690,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -705,7 +704,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -719,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -733,7 +732,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>24</v>
       </c>
@@ -747,7 +746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>30</v>
       </c>
@@ -761,7 +760,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>36</v>
       </c>
@@ -781,19 +780,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -801,7 +800,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -815,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -829,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -843,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -857,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -871,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -885,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -899,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -913,7 +912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>16</v>
       </c>
@@ -927,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>20</v>
       </c>
@@ -941,7 +940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>24</v>
       </c>
@@ -955,7 +954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>30</v>
       </c>
@@ -969,7 +968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>36</v>
       </c>
@@ -989,16 +988,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1005,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>8</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>10</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>12</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>20</v>
       </c>
@@ -1152,16 +1151,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1168,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>8</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>10</v>
       </c>
@@ -1273,67 +1272,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
         <v>100</v>
       </c>
     </row>
@@ -1343,26 +1337,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1381,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>800</v>
       </c>
@@ -1392,7 +1386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>900</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1421,36 +1415,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1461,19 +1455,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7.85</v>
       </c>
@@ -1489,7 +1483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7.87</v>
       </c>
@@ -1503,134 +1497,134 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2BB505-3A02-420D-80F8-4EE3C0CC4249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>85</v>
       </c>
